--- a/website_content_creation/authors/Benoit_Hamel/Author_form.xlsx
+++ b/website_content_creation/authors/Benoit_Hamel/Author_form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Benoit_Hamel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{0D830FED-978B-478E-9E22-22FC85A0CAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42DB28B6-6B79-4D5E-88C8-584688767BE0}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{0D830FED-978B-478E-9E22-22FC85A0CAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5CF150F-BB55-45C4-AA68-E2EB59E04AFE}"/>
   <bookViews>
-    <workbookView xWindow="-10110" yWindow="-14505" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14235" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Terrestrial Ecosystems Specialist</t>
   </si>
   <si>
-    <t>Visiting and Contributing Scientists</t>
-  </si>
-  <si>
     <t>Canadian Forest Service</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>https://natural-resources.canada.ca/our-natural-resources/forests-forestry/the-canadian-forest-service</t>
+  </si>
+  <si>
+    <t>Past WETlab Members</t>
   </si>
 </sst>
 </file>
@@ -567,6 +567,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,7 +577,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -796,7 +796,7 @@
   <dimension ref="A1:C1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -847,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -903,7 +903,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -915,11 +915,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
@@ -934,10 +934,10 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="C18" s="11">
         <v>2000</v>
@@ -945,10 +945,10 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="12">
         <v>1997</v>
@@ -971,10 +971,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="37"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
@@ -986,18 +986,18 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1024,22 +1024,22 @@
     </row>
     <row r="34" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
